--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,9 +25,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tree vertics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority queue of remaining vertics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(-, -)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(a, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b(e, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(e, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d(c, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d(c, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The minumum spanning tree found by the algorithm comprises the edges ae, eb, ec and cd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b(a, 5), c(a, 7), d(-, ∞), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e(a, 2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b(e, 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, c(e, 4), d(e, 5)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c(e, 4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, d(e, 5)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +159,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -93,31 +212,106 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +402,202 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線接點 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="628650"/>
+          <a:ext cx="409575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線接點 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1323975" y="514350"/>
+          <a:ext cx="438150" cy="371477"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線接點 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="895350" y="1104900"/>
+          <a:ext cx="419100" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線接點 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="1447800"/>
+          <a:ext cx="800100" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -479,7 +869,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,44 +884,98 @@
         <v>0</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,12 +132,268 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tree edges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorted list of edges（selected edges are shown in bold）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, de(2), bd(3), cd(4), ab(5), ad(6), ce(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bc(1), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, bd(3), cd(4), ab(5), ad(6), ce(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bc(1), de(2), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bd(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cd(4), ab(5), ad(6), ce(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bc(1), de(2), bd(3), cd(4),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ab(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ad(6), ce(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree vertices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining vertices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(-, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d(a, 7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b(d, 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(d, 12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(c, 12+6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(c, 18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c(d, 12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, e(-, ∞)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b(d, 2+7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, c(d, 5+7), e(-, ∞)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b(-, ∞), c(-, ∞), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d(a, 7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, e(-, ∞)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shortest paths and their lengths are：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +432,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,18 +535,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -282,35 +591,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,6 +895,486 @@
         <a:xfrm>
           <a:off x="914400" y="1447800"/>
           <a:ext cx="800100" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210090</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="3867690" cy="1914792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線接點 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="4572000"/>
+          <a:ext cx="1314450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線接點 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="5381625"/>
+          <a:ext cx="1314450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線接點 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="4581525"/>
+          <a:ext cx="638175" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線接點 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1057275" y="4705350"/>
+          <a:ext cx="561975" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48227</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="4315427" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線接點 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="9515475"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線接點 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="8820150"/>
+          <a:ext cx="590550" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2686051" y="8905875"/>
+          <a:ext cx="609599" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線接點 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3419475" y="8924925"/>
+          <a:ext cx="600075" cy="561977"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -866,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,37 +1682,37 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
@@ -919,10 +1721,10 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
@@ -931,39 +1733,225 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="22"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="35">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D12:G12"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,82 @@
   </si>
   <si>
     <t>The shortest paths and their lengths are：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to d：a-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to b：a-d-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to c：a-d-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to e：a-d-c-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +534,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -546,25 +622,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,44 +778,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1384,6 +1536,778 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>766</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13201650"/>
+          <a:ext cx="5487166" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314879</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15097125"/>
+          <a:ext cx="3972479" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>102837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438154</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右大括弧 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1103934" y="16382030"/>
+          <a:ext cx="230537" cy="876302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180978</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>121887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447680</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="右大括弧 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1113460" y="17401205"/>
+          <a:ext cx="230537" cy="876302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線接點 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="838200" y="20250150"/>
+          <a:ext cx="95250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線接點 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="18440400"/>
+          <a:ext cx="28575" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="19850100"/>
+          <a:ext cx="523875" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線接點 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="19840575"/>
+          <a:ext cx="1295400" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線接點 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="19850100"/>
+          <a:ext cx="1857375" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線接點 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="18411825"/>
+          <a:ext cx="590550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171454</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>150464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438156</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右大括弧 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1103936" y="19249057"/>
+          <a:ext cx="230537" cy="876302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線接點 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="21850350"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線接點 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="21869400"/>
+          <a:ext cx="571500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="22488525"/>
+          <a:ext cx="619125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="22488525"/>
+          <a:ext cx="76200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="22498050"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="22479000"/>
+          <a:ext cx="1257300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1668,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1682,77 +2606,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -1770,86 +2694,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="25" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="22"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="22"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="22"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -1857,85 +2781,323 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="19" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="31" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="31" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="D86" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="E86" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F86" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="C91" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D91" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E91" s="36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D95" s="32">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="C100" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="D100" s="36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C104" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="E104" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="F104" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="C108" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="35"/>
+    </row>
+    <row r="110" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="D111" s="34">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C114" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="E114" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="F114" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
+  <mergeCells count="42">
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -1952,18 +3114,13 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,29 +700,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,22 +715,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,15 +751,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2304,6 +2304,358 @@
         <a:xfrm>
           <a:off x="2143125" y="22479000"/>
           <a:ext cx="1257300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線接點 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="21850350"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線接點 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="21869400"/>
+          <a:ext cx="571500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線接點 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="22488525"/>
+          <a:ext cx="619125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="22488525"/>
+          <a:ext cx="76200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="22498050"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線接點 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="22479000"/>
+          <a:ext cx="1257300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047750" y="23907750"/>
+          <a:ext cx="447675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="23917275"/>
+          <a:ext cx="657225" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2592,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2606,77 +2958,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -2694,86 +3046,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="7"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -2785,66 +3137,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="27"/>
+      <c r="D55" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="27"/>
+      <c r="D57" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="27"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -2889,215 +3241,264 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="32">
+      <c r="B86" s="6">
         <v>0.1</v>
       </c>
-      <c r="C86" s="32">
+      <c r="C86" s="6">
         <v>0.15</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="6">
         <v>0.15</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="6">
         <v>0.2</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="32">
+      <c r="B91" s="6">
         <v>0.15</v>
       </c>
-      <c r="C91" s="33">
+      <c r="C91" s="7">
         <v>0.2</v>
       </c>
-      <c r="D91" s="34">
+      <c r="D91" s="9">
         <v>0.25</v>
       </c>
-      <c r="E91" s="36">
+      <c r="E91" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="32">
+      <c r="C95" s="6">
         <v>0.1</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="6">
         <v>0.15</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="34">
+      <c r="B100" s="9">
         <v>0.25</v>
       </c>
-      <c r="C100" s="34">
+      <c r="C100" s="9">
         <v>0.35</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D100" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="32">
+      <c r="B104" s="6">
         <v>0.1</v>
       </c>
-      <c r="C104" s="32">
+      <c r="C104" s="6">
         <v>0.15</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E104" s="6">
         <v>0.15</v>
       </c>
-      <c r="F104" s="32">
+      <c r="F104" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="32" t="s">
+      <c r="E105" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="33">
+      <c r="B108" s="7">
         <v>0.4</v>
       </c>
-      <c r="C108" s="34">
+      <c r="C108" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="35"/>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="34">
+      <c r="C111" s="9">
         <v>0.25</v>
       </c>
-      <c r="D111" s="34">
+      <c r="D111" s="9">
         <v>0.35</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="32">
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
         <v>0.1</v>
       </c>
-      <c r="C114" s="32">
+      <c r="C114" s="6">
         <v>0.15</v>
       </c>
-      <c r="E114" s="32">
+      <c r="E114" s="6">
         <v>0.15</v>
       </c>
-      <c r="F114" s="32">
+      <c r="F114" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="32" t="s">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F115" s="32" t="s">
+      <c r="F115" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="34">
+    <row r="117" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="35"/>
+    <row r="119" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="10"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E125" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D128" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G128" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="45">
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -3114,13 +3515,25 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -709,16 +709,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,42 +785,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1644,43 +1644,931 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線接點 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="838200" y="20250150"/>
+          <a:ext cx="95250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線接點 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="18440400"/>
+          <a:ext cx="28575" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="19850100"/>
+          <a:ext cx="523875" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線接點 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="19840575"/>
+          <a:ext cx="1295400" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線接點 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="19850100"/>
+          <a:ext cx="1857375" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線接點 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="18411825"/>
+          <a:ext cx="590550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線接點 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="21850350"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線接點 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="21869400"/>
+          <a:ext cx="571500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171452</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>102837</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>438154</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="22488525"/>
+          <a:ext cx="619125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="22488525"/>
+          <a:ext cx="76200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="22498050"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="22479000"/>
+          <a:ext cx="1257300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線接點 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="21850350"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線接點 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="21869400"/>
+          <a:ext cx="571500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線接點 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="22488525"/>
+          <a:ext cx="619125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="22488525"/>
+          <a:ext cx="76200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="22498050"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線接點 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="22479000"/>
+          <a:ext cx="1257300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047750" y="23907750"/>
+          <a:ext cx="447675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="23917275"/>
+          <a:ext cx="657225" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右大括弧 8"/>
+        <xdr:cNvPr id="49" name="圓角矩形 48"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1103934" y="16382030"/>
-          <a:ext cx="230537" cy="876302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:xfrm>
+          <a:off x="523875" y="17802225"/>
+          <a:ext cx="1276350" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1696,43 +2584,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180978</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>121887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447680</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="右大括弧 21"/>
+        <xdr:cNvPr id="51" name="圓角矩形 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1113460" y="17401205"/>
-          <a:ext cx="230537" cy="876302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:xfrm>
+          <a:off x="552450" y="16764000"/>
+          <a:ext cx="1276350" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1748,307 +2644,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線接點 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="838200" y="20250150"/>
-          <a:ext cx="95250" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線接點 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124075" y="18440400"/>
-          <a:ext cx="28575" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線接點 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="19850100"/>
-          <a:ext cx="523875" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線接點 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="19840575"/>
-          <a:ext cx="1295400" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線接點 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="19850100"/>
-          <a:ext cx="1857375" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線接點 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1524000" y="18411825"/>
-          <a:ext cx="590550" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171454</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>150464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438156</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="右大括弧 41"/>
+        <xdr:cNvPr id="53" name="圓角矩形 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1103936" y="19249057"/>
-          <a:ext cx="230537" cy="876302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:xfrm>
+          <a:off x="495300" y="19545300"/>
+          <a:ext cx="1276350" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2064,618 +2704,224 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線接點 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圓角矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="21850350"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線接點 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1552575" y="21869400"/>
-          <a:ext cx="571500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914400" y="22488525"/>
-          <a:ext cx="619125" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="22488525"/>
-          <a:ext cx="76200" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171700" y="22498050"/>
-          <a:ext cx="552450" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2143125" y="22479000"/>
-          <a:ext cx="1257300" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線接點 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="21850350"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線接點 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1552575" y="21869400"/>
-          <a:ext cx="571500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線接點 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914400" y="22488525"/>
-          <a:ext cx="619125" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="22488525"/>
-          <a:ext cx="76200" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171700" y="22498050"/>
-          <a:ext cx="552450" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+          <a:off x="552450" y="21155025"/>
+          <a:ext cx="1276350" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線接點 46"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="向右箭號 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="22479000"/>
-          <a:ext cx="1257300" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1047750" y="23907750"/>
-          <a:ext cx="447675" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
+          <a:off x="4010025" y="17240250"/>
+          <a:ext cx="533400" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="向右箭號 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="17211675"/>
+          <a:ext cx="533400" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線接點 58"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="向右箭號 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="23917275"/>
-          <a:ext cx="657225" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:off x="4038600" y="19440525"/>
+          <a:ext cx="533400" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2944,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2958,77 +3204,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3046,86 +3292,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="27"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="29" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="27"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="27"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3137,66 +3383,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="34" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="35" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="36" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -3240,7 +3486,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>0.1</v>
       </c>
@@ -3256,8 +3503,29 @@
       <c r="F86" s="6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I86" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L86" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="O86" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="P86" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>42</v>
       </c>
@@ -3273,232 +3541,191 @@
       <c r="F87" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
+      <c r="I87" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="10"/>
+      <c r="L87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J90" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K90" s="6">
         <v>0.15</v>
       </c>
-      <c r="C91" s="7">
+      <c r="O90" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="P90" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="R90" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="S90" s="6">
         <v>0.2</v>
       </c>
-      <c r="D91" s="9">
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J94" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I98" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="9">
         <v>0.25</v>
       </c>
-      <c r="E91" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="6" t="s">
+      <c r="D99" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="10"/>
+    </row>
+    <row r="100" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K101" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L101" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="6">
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J104" s="6">
         <v>0.1</v>
       </c>
-      <c r="D95" s="6">
+      <c r="K104" s="6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="C100" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="D100" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C104" s="6">
+      <c r="M104" s="6">
         <v>0.15</v>
       </c>
-      <c r="E104" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F104" s="6">
+      <c r="N104" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C108" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" s="10"/>
-    </row>
-    <row r="110" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="D111" s="9">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C114" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="E114" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F114" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="10"/>
-    </row>
-    <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="10"/>
-    </row>
-    <row r="124" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D125" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E125" s="9">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D128" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F128" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="G128" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J105" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="K105" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="M105" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="N105" s="6" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -3515,25 +3742,23 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text ABACABAD wull be encode as 0100011101000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the code of the part a , 100 010 111 001 010 will be decodeed as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           B   A    D  - A  D A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,58 +715,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,6 +756,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2922,6 +2937,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67025</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>19416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="圖片 59" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22288500"/>
+          <a:ext cx="2505425" cy="2619741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3190,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3204,77 +3263,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3292,86 +3351,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="21" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3383,66 +3442,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="25"/>
+      <c r="D54" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="15" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -3509,16 +3568,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K86" s="35">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86" s="35">
         <v>0.25</v>
       </c>
-      <c r="P86" s="9">
+      <c r="P86" s="35">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -3547,12 +3606,12 @@
       <c r="J87" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K87" s="10"/>
+      <c r="K87" s="36"/>
       <c r="L87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
       <c r="Q87" s="8" t="s">
         <v>52</v>
       </c>
@@ -3599,62 +3658,74 @@
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="9">
+      <c r="J94" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="10"/>
+      <c r="J95" s="36"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="35">
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="10"/>
-    </row>
-    <row r="98" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="36"/>
+      <c r="I97" s="37">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I98" s="6">
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="9">
+      <c r="K98" s="35">
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="9">
+    <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="35">
         <v>0.25</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="35">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="10"/>
-    </row>
-    <row r="100" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="9">
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="K100" s="37">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K101" s="35">
         <v>0.25</v>
       </c>
-      <c r="L101" s="9">
+      <c r="L101" s="35">
         <v>0.35</v>
       </c>
     </row>
-    <row r="102" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="6">
         <v>0.1</v>
       </c>
@@ -3667,10 +3738,10 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>50</v>
       </c>
@@ -3683,8 +3754,20 @@
       <c r="F103" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J103" s="37">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="37">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J104" s="6">
         <v>0.1</v>
       </c>
@@ -3698,7 +3781,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J105" s="6" t="s">
         <v>42</v>
       </c>
@@ -3712,20 +3795,45 @@
         <v>45</v>
       </c>
     </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -3742,23 +3850,18 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +474,58 @@
   </si>
   <si>
     <t xml:space="preserve">                                           B   A    D  - A  D A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            (1, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      (2, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       (0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   (0, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-x+y=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         2x+y=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of 3x+y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hence, the optimal solution is x=2, y=0, with the corresponding value of the objective function equal to 6.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -701,11 +753,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,16 +778,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,50 +865,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2981,6 +3051,379 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25888950"/>
+          <a:ext cx="0" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線單箭頭接點 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="466726" y="27498675"/>
+          <a:ext cx="2600324" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線接點 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="466726" y="26584275"/>
+          <a:ext cx="1609724" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="371476" y="26784300"/>
+          <a:ext cx="1752599" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="直角三角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="27108150"/>
+          <a:ext cx="590550" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="27289125"/>
+          <a:ext cx="619125" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="直角三角形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="609599" y="27089100"/>
+          <a:ext cx="619126" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3249,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3263,77 +3706,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3351,86 +3794,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="25"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="25"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="25"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3442,66 +3885,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="33" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="34" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -3568,16 +4011,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="35">
+      <c r="K86" s="10">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="35">
+      <c r="O86" s="10">
         <v>0.25</v>
       </c>
-      <c r="P86" s="35">
+      <c r="P86" s="10">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -3606,12 +4049,12 @@
       <c r="J87" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K87" s="36"/>
+      <c r="K87" s="11"/>
       <c r="L87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
       <c r="Q87" s="8" t="s">
         <v>52</v>
       </c>
@@ -3658,18 +4101,18 @@
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="35">
+      <c r="J94" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="36"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="10">
         <v>0.6</v>
       </c>
     </row>
@@ -3677,8 +4120,8 @@
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="I97" s="37">
+      <c r="C97" s="11"/>
+      <c r="I97" s="9">
         <v>0</v>
       </c>
       <c r="K97" s="2">
@@ -3690,27 +4133,27 @@
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="35">
+      <c r="K98" s="10">
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="35">
+      <c r="C99" s="10">
         <v>0.25</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="10">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="36"/>
+      <c r="K99" s="11"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="K100" s="37">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="K100" s="9">
         <v>0</v>
       </c>
       <c r="L100" s="2">
@@ -3718,10 +4161,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="35">
+      <c r="K101" s="10">
         <v>0.25</v>
       </c>
-      <c r="L101" s="35">
+      <c r="L101" s="10">
         <v>0.35</v>
       </c>
     </row>
@@ -3738,8 +4181,8 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
@@ -3754,13 +4197,13 @@
       <c r="F103" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J103" s="37">
+      <c r="J103" s="9">
         <v>0</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
       </c>
-      <c r="M103" s="37">
+      <c r="M103" s="9">
         <v>0</v>
       </c>
       <c r="N103" s="2">
@@ -3815,25 +4258,111 @@
         <v>5</v>
       </c>
     </row>
+    <row r="127" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I127" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J127" s="40"/>
+      <c r="K127" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L127" s="39"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I128" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J128" s="13"/>
+      <c r="K128" s="12">
+        <v>4</v>
+      </c>
+      <c r="L128" s="12"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I129" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J129" s="13"/>
+      <c r="K129" s="12">
+        <v>1</v>
+      </c>
+      <c r="L129" s="12"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J130" s="13"/>
+      <c r="K130" s="12">
+        <v>5</v>
+      </c>
+      <c r="L130" s="12"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I131" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J131" s="21"/>
+      <c r="K131" s="20">
+        <v>6</v>
+      </c>
+      <c r="L131" s="20"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>58</v>
+      </c>
+      <c r="I133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
+  <mergeCells count="55">
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -3850,18 +4379,23 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="K98:K99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,18 @@
   </si>
   <si>
     <t>Hence, the optimal solution is x=2, y=0, with the corresponding value of the objective function equal to 6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since the feasible region of the problem is nonempty and bounded, an optimal solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exists and can be found at one of the extreme points of the feasible region. The extreme </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points and the corresponding values of the objective function are given in the following tables：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,6 +793,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,7 +878,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3424,6 +3436,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19648</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="圖片 62" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27689175"/>
+          <a:ext cx="4286848" cy="2953162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3692,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3706,77 +3762,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3794,86 +3850,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3885,66 +3941,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="16" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="16" t="s">
+      <c r="C56" s="14"/>
+      <c r="D56" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="17" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -4011,16 +4067,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86" s="11">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="10">
+      <c r="O86" s="11">
         <v>0.25</v>
       </c>
-      <c r="P86" s="10">
+      <c r="P86" s="11">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -4049,12 +4105,12 @@
       <c r="J87" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K87" s="11"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
       <c r="Q87" s="8" t="s">
         <v>52</v>
       </c>
@@ -4101,18 +4157,18 @@
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="10">
+      <c r="J94" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="11"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="11">
         <v>0.6</v>
       </c>
     </row>
@@ -4120,7 +4176,7 @@
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="12"/>
       <c r="I97" s="9">
         <v>0</v>
       </c>
@@ -4133,26 +4189,26 @@
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="10">
+      <c r="K98" s="11">
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="10">
+      <c r="C99" s="11">
         <v>0.25</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="11">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="11"/>
+      <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
       <c r="K100" s="9">
         <v>0</v>
       </c>
@@ -4161,10 +4217,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="10">
+      <c r="K101" s="11">
         <v>0.25</v>
       </c>
-      <c r="L101" s="10">
+      <c r="L101" s="11">
         <v>0.35</v>
       </c>
     </row>
@@ -4181,8 +4237,8 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
@@ -4258,99 +4314,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I127" s="39" t="s">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I129" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J127" s="40"/>
-      <c r="K127" s="39" t="s">
+      <c r="J129" s="40"/>
+      <c r="K129" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="L127" s="39"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I128" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J128" s="13"/>
-      <c r="K128" s="12">
-        <v>4</v>
-      </c>
-      <c r="L128" s="12"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I129" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J129" s="13"/>
-      <c r="K129" s="12">
-        <v>1</v>
-      </c>
-      <c r="L129" s="12"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L129" s="39"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>59</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I130" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J130" s="13"/>
-      <c r="K130" s="12">
-        <v>5</v>
-      </c>
-      <c r="L130" s="12"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I131" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J131" s="21"/>
-      <c r="K131" s="20">
-        <v>6</v>
-      </c>
-      <c r="L131" s="20"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I130" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J130" s="14"/>
+      <c r="K130" s="13">
+        <v>4</v>
+      </c>
+      <c r="L130" s="13"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I131" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="13">
+        <v>1</v>
+      </c>
+      <c r="L131" s="13"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I132" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J132" s="14"/>
+      <c r="K132" s="13">
+        <v>5</v>
+      </c>
+      <c r="L132" s="13"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>58</v>
       </c>
-      <c r="I133" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I133" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J133" s="22"/>
+      <c r="K133" s="21">
+        <v>6</v>
+      </c>
+      <c r="L133" s="21"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="K129:L129"/>
     <mergeCell ref="K130:L130"/>
     <mergeCell ref="K131:L131"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="K129:L129"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="I130:J130"/>
     <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D12:G12"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>The shortest paths and their lengths are：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to d：a-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to b：a-d-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to c：a-d-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from a to e：a-d-c-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of length 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text ABACABAD wull be encode as 0100011101000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the code of the part a , 100 010 111 001 010 will be decodeed as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           B   A    D  - A  D A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            (1, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      (2, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       (0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   (0, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-x+y=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         2x+y=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of 3x+y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hence, the optimal solution is x=2, y=0, with the corresponding value of the objective function equal to 6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since the feasible region of the problem is nonempty and bounded, an optimal solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exists and can be found at one of the extreme points of the feasible region. The extreme </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points and the corresponding values of the objective function are given in the following tables：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">b(-, ∞), c(-, ∞), </t>
     </r>
@@ -385,159 +541,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The shortest paths and their lengths are：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from a to d：a-d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from a to b：a-d-b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from a to c：a-d-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from a to e：a-d-c-e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>of length 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>of length 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>of length 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>of length 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The text ABACABAD wull be encode as 0100011101000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>With the code of the part a , 100 010 111 001 010 will be decodeed as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           B   A    D  - A  D A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            (1, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      (2, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       (0, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   (0, 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-x+y=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         2x+y=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extreme point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value of 3x+y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hence, the optimal solution is x=2, y=0, with the corresponding value of the objective function equal to 6.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Since the feasible region of the problem is nonempty and bounded, an optimal solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">exists and can be found at one of the extreme points of the feasible region. The extreme </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>points and the corresponding values of the objective function are given in the following tables：</t>
+    <t>(∞, -)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 1+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 2+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6, 1+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4, 2+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4, 4+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 4-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 3+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,6 +633,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -780,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,58 +885,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,11 +945,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3480,6 +3592,664 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線單箭頭接點 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="31299150"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線單箭頭接點 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="31289625"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線單箭頭接點 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="32289750"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線單箭頭接點 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="32289750"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線單箭頭接點 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="31489650"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線單箭頭接點 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="31499175"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線單箭頭接點 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="31480125"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線單箭頭接點 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="31299150"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線單箭頭接點 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="31289625"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線單箭頭接點 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="32289750"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線單箭頭接點 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="32289750"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線單箭頭接點 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="31489650"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線單箭頭接點 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="31499175"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線單箭頭接點 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="31480125"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3748,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3762,77 +4532,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3850,86 +4620,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3941,102 +4711,102 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="16"/>
+      <c r="D55" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="17" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -4067,16 +4837,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="40">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="11">
+      <c r="O86" s="40">
         <v>0.25</v>
       </c>
-      <c r="P86" s="11">
+      <c r="P86" s="40">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -4085,34 +4855,34 @@
     </row>
     <row r="87" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="J87" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="41"/>
+      <c r="L87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K87" s="12"/>
-      <c r="L87" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
       <c r="Q87" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
@@ -4137,46 +4907,46 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J91" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K91" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="O91" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P91" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P91" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="R91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S91" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="S91" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="11">
+      <c r="J94" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="12"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C97" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="C97" s="41"/>
       <c r="I97" s="9">
         <v>0</v>
       </c>
@@ -4189,26 +4959,26 @@
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="11">
+      <c r="K98" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="11">
+      <c r="C99" s="40">
         <v>0.25</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="40">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="12"/>
+      <c r="K99" s="41"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
       <c r="K100" s="9">
         <v>0</v>
       </c>
@@ -4217,10 +4987,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="11">
+      <c r="K101" s="40">
         <v>0.25</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -4237,21 +5007,21 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E103" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="J103" s="9">
         <v>0</v>
@@ -4282,31 +5052,31 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J105" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K105" s="6" t="s">
+      <c r="M105" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M105" s="6" t="s">
+      <c r="N105" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -4316,94 +5086,94 @@
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I129" s="39" t="s">
+      <c r="I129" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J129" s="15"/>
+      <c r="K129" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J129" s="40"/>
-      <c r="K129" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L129" s="39"/>
+      <c r="L129" s="14"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I130" s="13" t="s">
+      <c r="I130" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J130" s="16"/>
+      <c r="K130" s="12">
+        <v>4</v>
+      </c>
+      <c r="L130" s="12"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I131" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J130" s="14"/>
-      <c r="K130" s="13">
-        <v>4</v>
-      </c>
-      <c r="L130" s="13"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I131" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J131" s="14"/>
-      <c r="K131" s="13">
+      <c r="J131" s="16"/>
+      <c r="K131" s="12">
         <v>1</v>
       </c>
-      <c r="L131" s="13"/>
+      <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>56</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J132" s="14"/>
-      <c r="K132" s="13">
+        <v>55</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J132" s="16"/>
+      <c r="K132" s="12">
         <v>5</v>
       </c>
-      <c r="L132" s="13"/>
+      <c r="L132" s="12"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>58</v>
-      </c>
-      <c r="I133" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="J133" s="22"/>
-      <c r="K133" s="21">
+        <v>57</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J133" s="18"/>
+      <c r="K133" s="13">
         <v>6</v>
       </c>
-      <c r="L133" s="21"/>
+      <c r="L133" s="13"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -4411,30 +5181,145 @@
         <v>6</v>
       </c>
     </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="42">
+        <v>1</v>
+      </c>
+      <c r="C156" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" s="42">
+        <v>2</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" s="42">
+        <v>5</v>
+      </c>
+      <c r="I156" s="42">
+        <v>1</v>
+      </c>
+      <c r="J156" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K156" s="42">
+        <v>2</v>
+      </c>
+      <c r="L156" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M156" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F157" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K157" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M157" s="42"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C159" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G159" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J159" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L159" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="N159" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="42">
+        <v>3</v>
+      </c>
+      <c r="D161" s="42">
+        <v>4</v>
+      </c>
+      <c r="F161" s="42">
+        <v>6</v>
+      </c>
+      <c r="I161" s="42">
+        <v>3</v>
+      </c>
+      <c r="K161" s="42">
+        <v>4</v>
+      </c>
+      <c r="M161" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F162" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J162" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K162" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L162" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M162" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -4451,23 +5336,28 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="K129:L129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -888,31 +888,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,56 +990,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4250,6 +4250,329 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543341</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33089850"/>
+          <a:ext cx="2981741" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190952</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>181301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33737550"/>
+          <a:ext cx="3238952" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線接點 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="34299525"/>
+          <a:ext cx="2162175" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線接點 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047751" y="34299525"/>
+          <a:ext cx="2133599" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線接點 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2133602" y="34423350"/>
+          <a:ext cx="9523" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257822</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>190689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="圖片 32" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="39528750"/>
+          <a:ext cx="4639322" cy="1352739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572260</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>105264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="圖片 80" descr="畫面剪輯"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36490275"/>
+          <a:ext cx="5449060" cy="3505689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4518,10 +4841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4532,77 +4855,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -4620,86 +4943,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="16"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="16"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -4711,66 +5034,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="37" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="38" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="38" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="39" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -4837,16 +5160,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="18">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="40">
+      <c r="O86" s="18">
         <v>0.25</v>
       </c>
-      <c r="P86" s="40">
+      <c r="P86" s="18">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -4875,12 +5198,12 @@
       <c r="J87" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K87" s="41"/>
+      <c r="K87" s="19"/>
       <c r="L87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
       <c r="Q87" s="8" t="s">
         <v>51</v>
       </c>
@@ -4927,18 +5250,18 @@
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="40">
+      <c r="J94" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="41"/>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C96" s="18">
         <v>0.6</v>
       </c>
     </row>
@@ -4946,7 +5269,7 @@
       <c r="B97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="41"/>
+      <c r="C97" s="19"/>
       <c r="I97" s="9">
         <v>0</v>
       </c>
@@ -4959,26 +5282,26 @@
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="40">
+      <c r="K98" s="18">
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="40">
+      <c r="C99" s="18">
         <v>0.25</v>
       </c>
-      <c r="D99" s="40">
+      <c r="D99" s="18">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="41"/>
+      <c r="K99" s="19"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
       <c r="K100" s="9">
         <v>0</v>
       </c>
@@ -4987,10 +5310,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="40">
+      <c r="K101" s="18">
         <v>0.25</v>
       </c>
-      <c r="L101" s="40">
+      <c r="L101" s="18">
         <v>0.35</v>
       </c>
     </row>
@@ -5007,8 +5330,8 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
@@ -5100,14 +5423,14 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I129" s="14" t="s">
+      <c r="I129" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J129" s="15"/>
-      <c r="K129" s="14" t="s">
+      <c r="J129" s="47"/>
+      <c r="K129" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="L129" s="14"/>
+      <c r="L129" s="46"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
@@ -5118,50 +5441,50 @@
       <c r="C130" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I130" s="12" t="s">
+      <c r="I130" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J130" s="16"/>
-      <c r="K130" s="12">
+      <c r="J130" s="21"/>
+      <c r="K130" s="20">
         <v>4</v>
       </c>
-      <c r="L130" s="12"/>
+      <c r="L130" s="20"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I131" s="12" t="s">
+      <c r="I131" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J131" s="16"/>
-      <c r="K131" s="12">
+      <c r="J131" s="21"/>
+      <c r="K131" s="20">
         <v>1</v>
       </c>
-      <c r="L131" s="12"/>
+      <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>55</v>
       </c>
-      <c r="I132" s="12" t="s">
+      <c r="I132" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J132" s="16"/>
-      <c r="K132" s="12">
+      <c r="J132" s="21"/>
+      <c r="K132" s="20">
         <v>5</v>
       </c>
-      <c r="L132" s="12"/>
+      <c r="L132" s="20"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>57</v>
       </c>
-      <c r="I133" s="17" t="s">
+      <c r="I133" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J133" s="18"/>
-      <c r="K133" s="13">
+      <c r="J133" s="29"/>
+      <c r="K133" s="28">
         <v>6</v>
       </c>
-      <c r="L133" s="13"/>
+      <c r="L133" s="28"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
@@ -5182,144 +5505,159 @@
       </c>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B156" s="42">
+      <c r="B156" s="12">
         <v>1</v>
       </c>
-      <c r="C156" s="44" t="s">
+      <c r="C156" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D156" s="42">
+      <c r="D156" s="12">
         <v>2</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F156" s="42">
+      <c r="F156" s="12">
         <v>5</v>
       </c>
-      <c r="I156" s="42">
+      <c r="I156" s="12">
         <v>1</v>
       </c>
-      <c r="J156" s="44" t="s">
+      <c r="J156" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K156" s="42">
+      <c r="K156" s="12">
         <v>2</v>
       </c>
-      <c r="L156" s="44" t="s">
+      <c r="L156" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M156" s="42">
+      <c r="M156" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B157" s="42" t="s">
+      <c r="B157" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D157" s="42" t="s">
+      <c r="D157" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F157" s="42" t="s">
+      <c r="F157" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I157" s="42" t="s">
+      <c r="I157" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K157" s="42" t="s">
+      <c r="K157" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="M157" s="42"/>
+      <c r="M157" s="12"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C159" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E159" s="45" t="s">
+      <c r="E159" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G159" s="43" t="s">
+      <c r="G159" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J159" s="44" t="s">
+      <c r="J159" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="L159" s="45" t="s">
+      <c r="L159" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="N159" s="47" t="s">
+      <c r="N159" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B161" s="42">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="12">
         <v>3</v>
       </c>
-      <c r="D161" s="42">
+      <c r="D161" s="12">
         <v>4</v>
       </c>
-      <c r="F161" s="42">
+      <c r="F161" s="12">
         <v>6</v>
       </c>
-      <c r="I161" s="42">
+      <c r="I161" s="12">
         <v>3</v>
       </c>
-      <c r="K161" s="42">
+      <c r="K161" s="12">
         <v>4</v>
       </c>
-      <c r="M161" s="42">
+      <c r="M161" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B162" s="42" t="s">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D162" s="42" t="s">
+      <c r="D162" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E162" s="46" t="s">
+      <c r="E162" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F162" s="42" t="s">
+      <c r="F162" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I162" s="42" t="s">
+      <c r="I162" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J162" s="44" t="s">
+      <c r="J162" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K162" s="42" t="s">
+      <c r="K162" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L162" s="46" t="s">
+      <c r="L162" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M162" s="42"/>
+      <c r="M162" s="12"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -5336,28 +5674,23 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="K98:K99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW05.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D9F6E-0365-46F9-836C-287F00D11B72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -14,18 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>Tree vertics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,15 +623,56 @@
     <t>(1, 3+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>女生穩定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男生穩定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +728,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +745,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -867,11 +911,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,58 +965,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -990,12 +1022,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1025,7 +1086,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1058,7 +1119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="畫面剪輯"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1102,7 +1169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線接點 5"/>
+        <xdr:cNvPr id="6" name="直線接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1151,7 +1224,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線接點 6"/>
+        <xdr:cNvPr id="7" name="直線接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1200,7 +1279,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線接點 9"/>
+        <xdr:cNvPr id="10" name="直線接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1249,7 +1334,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線接點 11"/>
+        <xdr:cNvPr id="12" name="直線接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1298,7 +1389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2" descr="畫面剪輯"/>
+        <xdr:cNvPr id="3" name="圖片 2" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1342,7 +1439,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線接點 7"/>
+        <xdr:cNvPr id="8" name="直線接點 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1391,7 +1494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線接點 12"/>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1440,7 +1549,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線接點 13"/>
+        <xdr:cNvPr id="14" name="直線接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1489,7 +1604,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線接點 16"/>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1538,7 +1659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="圖片 19" descr="畫面剪輯"/>
+        <xdr:cNvPr id="20" name="圖片 19" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1582,7 +1709,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線接點 20"/>
+        <xdr:cNvPr id="21" name="直線接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1631,7 +1764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線接點 23"/>
+        <xdr:cNvPr id="24" name="直線接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1680,7 +1819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線接點 30"/>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1729,7 +1874,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線接點 36"/>
+        <xdr:cNvPr id="37" name="直線接點 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1778,7 +1929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3" descr="畫面剪輯"/>
+        <xdr:cNvPr id="4" name="圖片 3" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1822,7 +1979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="畫面剪輯"/>
+        <xdr:cNvPr id="5" name="圖片 4" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1866,7 +2029,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線接點 15"/>
+        <xdr:cNvPr id="16" name="直線接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1910,7 +2079,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線接點 22"/>
+        <xdr:cNvPr id="23" name="直線接點 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1954,7 +2129,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線接點 33"/>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1998,7 +2179,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線接點 35"/>
+        <xdr:cNvPr id="36" name="直線接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2042,7 +2229,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線接點 37"/>
+        <xdr:cNvPr id="38" name="直線接點 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2086,7 +2279,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線接點 39"/>
+        <xdr:cNvPr id="40" name="直線接點 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2130,7 +2329,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線接點 42"/>
+        <xdr:cNvPr id="43" name="直線接點 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2174,7 +2379,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線接點 44"/>
+        <xdr:cNvPr id="45" name="直線接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2218,7 +2429,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47"/>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2262,7 +2479,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49"/>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2306,7 +2529,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51"/>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2350,7 +2579,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53"/>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2394,7 +2629,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線接點 34"/>
+        <xdr:cNvPr id="35" name="直線接點 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2438,7 +2679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線接點 38"/>
+        <xdr:cNvPr id="39" name="直線接點 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2482,7 +2729,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線接點 40"/>
+        <xdr:cNvPr id="41" name="直線接點 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2526,7 +2779,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43"/>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2570,7 +2829,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45"/>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2614,7 +2879,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線接點 46"/>
+        <xdr:cNvPr id="47" name="直線接點 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2658,7 +2929,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57"/>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2702,7 +2979,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線接點 58"/>
+        <xdr:cNvPr id="59" name="直線接點 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2746,7 +3029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="圓角矩形 48"/>
+        <xdr:cNvPr id="49" name="圓角矩形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2806,7 +3095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="圓角矩形 50"/>
+        <xdr:cNvPr id="51" name="圓角矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2866,7 +3161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="圓角矩形 52"/>
+        <xdr:cNvPr id="53" name="圓角矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2926,7 +3227,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="圓角矩形 54"/>
+        <xdr:cNvPr id="55" name="圓角矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2986,7 +3293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="向右箭號 14"/>
+        <xdr:cNvPr id="15" name="向右箭號 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3040,7 +3353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="向右箭號 55"/>
+        <xdr:cNvPr id="56" name="向右箭號 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3094,7 +3413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="向右箭號 56"/>
+        <xdr:cNvPr id="57" name="向右箭號 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3148,7 +3473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="圖片 59" descr="畫面剪輯"/>
+        <xdr:cNvPr id="60" name="圖片 59" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3192,7 +3523,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線單箭頭接點 10"/>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3240,7 +3577,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線單箭頭接點 60"/>
+        <xdr:cNvPr id="61" name="直線單箭頭接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3288,7 +3631,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線接點 24"/>
+        <xdr:cNvPr id="25" name="直線接點 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3332,7 +3681,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線接點 61"/>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3376,7 +3731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="直角三角形 28"/>
+        <xdr:cNvPr id="29" name="直角三角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3439,7 +3800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3502,7 +3869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="直角三角形 63"/>
+        <xdr:cNvPr id="64" name="直角三角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3565,7 +3938,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="圖片 62" descr="畫面剪輯"/>
+        <xdr:cNvPr id="63" name="圖片 62" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3609,7 +3988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線單箭頭接點 18"/>
+        <xdr:cNvPr id="19" name="直線單箭頭接點 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3656,7 +4041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線單箭頭接點 64"/>
+        <xdr:cNvPr id="65" name="直線單箭頭接點 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3703,7 +4094,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線單箭頭接點 65"/>
+        <xdr:cNvPr id="66" name="直線單箭頭接點 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3750,7 +4147,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線單箭頭接點 66"/>
+        <xdr:cNvPr id="67" name="直線單箭頭接點 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3797,7 +4200,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線單箭頭接點 67"/>
+        <xdr:cNvPr id="68" name="直線單箭頭接點 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3844,7 +4253,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線單箭頭接點 68"/>
+        <xdr:cNvPr id="69" name="直線單箭頭接點 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3891,7 +4306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線單箭頭接點 69"/>
+        <xdr:cNvPr id="70" name="直線單箭頭接點 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3938,7 +4359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線單箭頭接點 70"/>
+        <xdr:cNvPr id="71" name="直線單箭頭接點 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3985,7 +4412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線單箭頭接點 71"/>
+        <xdr:cNvPr id="72" name="直線單箭頭接點 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4032,7 +4465,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線單箭頭接點 72"/>
+        <xdr:cNvPr id="73" name="直線單箭頭接點 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4079,7 +4518,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線單箭頭接點 73"/>
+        <xdr:cNvPr id="74" name="直線單箭頭接點 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4126,7 +4571,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線單箭頭接點 74"/>
+        <xdr:cNvPr id="75" name="直線單箭頭接點 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4173,7 +4624,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線單箭頭接點 75"/>
+        <xdr:cNvPr id="76" name="直線單箭頭接點 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4220,7 +4677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線單箭頭接點 76"/>
+        <xdr:cNvPr id="77" name="直線單箭頭接點 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4267,7 +4730,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8" descr="畫面剪輯"/>
+        <xdr:cNvPr id="9" name="圖片 8" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4311,7 +4780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="圖片 17" descr="畫面剪輯"/>
+        <xdr:cNvPr id="18" name="圖片 17" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4355,7 +4830,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線接點 77"/>
+        <xdr:cNvPr id="78" name="直線接點 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4404,7 +4885,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線接點 78"/>
+        <xdr:cNvPr id="79" name="直線接點 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4453,7 +4940,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線接點 79"/>
+        <xdr:cNvPr id="80" name="直線接點 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4489,20 +4982,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>257822</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>190689</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372122</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>114489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="圖片 32" descr="畫面剪輯"/>
+        <xdr:cNvPr id="33" name="圖片 32" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4521,7 +5020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9029700" y="39528750"/>
+          <a:off x="609600" y="39852600"/>
           <a:ext cx="4639322" cy="1352739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4541,12 +5040,18 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572260</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>105264</xdr:rowOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>143364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="圖片 80" descr="畫面剪輯"/>
+        <xdr:cNvPr id="81" name="圖片 80" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4840,11 +5345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+      <selection activeCell="R198" sqref="R198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4855,77 +5360,77 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -4943,86 +5448,86 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="30" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -5034,66 +5539,66 @@
         <v>22</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="24" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="25" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -5160,16 +5665,16 @@
       <c r="J86" s="7">
         <v>0.2</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K86" s="46">
         <v>0.25</v>
       </c>
       <c r="L86" s="8">
         <v>0.4</v>
       </c>
-      <c r="O86" s="18">
+      <c r="O86" s="46">
         <v>0.25</v>
       </c>
-      <c r="P86" s="18">
+      <c r="P86" s="46">
         <v>0.35</v>
       </c>
       <c r="Q86" s="8">
@@ -5198,12 +5703,12 @@
       <c r="J87" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K87" s="19"/>
+      <c r="K87" s="47"/>
       <c r="L87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
       <c r="Q87" s="8" t="s">
         <v>51</v>
       </c>
@@ -5250,18 +5755,18 @@
     </row>
     <row r="93" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J94" s="18">
+      <c r="J94" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="19"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>0.4</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="46">
         <v>0.6</v>
       </c>
     </row>
@@ -5269,7 +5774,7 @@
       <c r="B97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="19"/>
+      <c r="C97" s="47"/>
       <c r="I97" s="9">
         <v>0</v>
       </c>
@@ -5282,26 +5787,26 @@
         <v>0.4</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="18">
+      <c r="K98" s="46">
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="18">
+      <c r="C99" s="46">
         <v>0.25</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="46">
         <v>0.35</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="19"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
       <c r="K100" s="9">
         <v>0</v>
       </c>
@@ -5310,10 +5815,10 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="18">
+      <c r="K101" s="46">
         <v>0.25</v>
       </c>
-      <c r="L101" s="18">
+      <c r="L101" s="46">
         <v>0.35</v>
       </c>
     </row>
@@ -5330,8 +5835,8 @@
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
@@ -5423,14 +5928,14 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I129" s="46" t="s">
+      <c r="I129" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J129" s="47"/>
-      <c r="K129" s="46" t="s">
+      <c r="J129" s="21"/>
+      <c r="K129" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L129" s="46"/>
+      <c r="L129" s="20"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
@@ -5441,50 +5946,50 @@
       <c r="C130" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J130" s="21"/>
-      <c r="K130" s="20">
+      <c r="J130" s="22"/>
+      <c r="K130" s="18">
         <v>4</v>
       </c>
-      <c r="L130" s="20"/>
+      <c r="L130" s="18"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J131" s="21"/>
-      <c r="K131" s="20">
+      <c r="J131" s="22"/>
+      <c r="K131" s="18">
         <v>1</v>
       </c>
-      <c r="L131" s="20"/>
+      <c r="L131" s="18"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>55</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J132" s="21"/>
-      <c r="K132" s="20">
+      <c r="J132" s="22"/>
+      <c r="K132" s="18">
         <v>5</v>
       </c>
-      <c r="L132" s="20"/>
+      <c r="L132" s="18"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>57</v>
       </c>
-      <c r="I133" s="35" t="s">
+      <c r="I133" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J133" s="29"/>
-      <c r="K133" s="28">
+      <c r="J133" s="24"/>
+      <c r="K133" s="19">
         <v>6</v>
       </c>
-      <c r="L133" s="28"/>
+      <c r="L133" s="19"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
@@ -5629,35 +6134,154 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>8</v>
       </c>
     </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L183" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
+      <c r="O183" s="20"/>
+    </row>
+    <row r="185" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M185" t="s">
+        <v>95</v>
+      </c>
+      <c r="N185" t="s">
+        <v>96</v>
+      </c>
+      <c r="O185" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L186" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M186" t="s">
+        <v>101</v>
+      </c>
+      <c r="N186" t="s">
+        <v>102</v>
+      </c>
+      <c r="O186" s="49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L187" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M187" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N187" t="s">
+        <v>101</v>
+      </c>
+      <c r="O187" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L188" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M188" t="s">
+        <v>102</v>
+      </c>
+      <c r="N188" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="O188" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L191" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M191" s="20"/>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+    </row>
+    <row r="193" spans="12:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M193" t="s">
+        <v>95</v>
+      </c>
+      <c r="N193" t="s">
+        <v>96</v>
+      </c>
+      <c r="O193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="194" spans="12:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L194" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M194" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="12:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L195" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N195" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="12:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L196" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O196" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="57">
+    <mergeCell ref="L183:O183"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="B54:C54"/>
@@ -5674,23 +6298,28 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="K129:L129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
